--- a/Тест Кейс.xlsx
+++ b/Тест Кейс.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/266c8f4b8f7739ea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/266c8f4b8f7739ea/Documents/GitHub/QA-Pershko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4DF75460589B3ACB72849E37DE597E5BDEDDA7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{141CA93F-98DB-44CA-980A-804F9993C01C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4DF75460589B3ACB72849E37DE597E5BDEDDA7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26118FEA-8686-456D-BF05-3E19864CD1D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Номер</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>7. Нажать на кнопку "Регистрация"</t>
+  </si>
+  <si>
+    <t>фцу</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +537,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
